--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -28,7 +28,7 @@
     <t>2025-10-16</t>
   </si>
   <si>
-    <t>171290000</t>
+    <t>17141860</t>
   </si>
   <si>
     <t>2</t>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>17135000</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,8 +448,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>17135000</t>
+  </si>
+  <si>
+    <t>2025-10-18</t>
+  </si>
+  <si>
+    <t>17119220</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,6 +465,20 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>17119220</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>16972000</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,6 +485,20 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>16972000</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>16867000</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,6 +505,20 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>16867000</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>16584000</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,6 +528,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>16584000</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>17026530</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,6 +548,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>17026530</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>16643000</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,6 +568,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>16643000</t>
+  </si>
+  <si>
+    <t>2025-10-25</t>
+  </si>
+  <si>
+    <t>16292000</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,6 +588,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>16292000</t>
+  </si>
+  <si>
+    <t>2025-10-26</t>
+  </si>
+  <si>
+    <t>16716470</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -459,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,6 +611,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>16486000</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,6 +631,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>16486000</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>16310000</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,6 +651,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>16310000</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>16227370</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,6 +671,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>16227370</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>16202000</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,6 +691,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>16202000</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>16095000</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,6 +711,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>16095000</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>16455100</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,6 +731,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>16455100</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>16092000</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,6 +751,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>16092000</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>16032000</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,6 +771,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>16032000</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>15882250</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -516,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,6 +794,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>16735000</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,6 +814,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>16735000</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>17244000</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,6 +834,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>17244000</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>17717000</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,6 +854,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>17717000</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>17621000</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,6 +874,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>17621000</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>17485000</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,6 +894,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>17485000</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>17559180</t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,6 +914,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>17559180</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>17247000</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,6 +934,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>17247000</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>16963000</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,6 +954,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>16963000</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>17748450</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,6 +974,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>17748450</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>17934020</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,6 +994,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>17934020</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>17832980</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,6 +1014,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
+++ b/items/شمش طلا ۲۴ عیار پارسیس مدل 01.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>17832980</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>32553690</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1028,6 +1034,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
